--- a/Code/Results/Cases/Case_5_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031384576100169</v>
+        <v>1.062088900924397</v>
       </c>
       <c r="D2">
-        <v>1.047580619176602</v>
+        <v>1.066775190774129</v>
       </c>
       <c r="E2">
-        <v>1.033071525102219</v>
+        <v>1.057617229651659</v>
       </c>
       <c r="F2">
-        <v>1.052025143822407</v>
+        <v>1.075572017937335</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057732315888189</v>
+        <v>1.052825072051579</v>
       </c>
       <c r="J2">
-        <v>1.052665454259538</v>
+        <v>1.067061224130507</v>
       </c>
       <c r="K2">
-        <v>1.058414611478258</v>
+        <v>1.069484833642416</v>
       </c>
       <c r="L2">
-        <v>1.044088573905401</v>
+        <v>1.060351709029094</v>
       </c>
       <c r="M2">
-        <v>1.062804317937333</v>
+        <v>1.078258234190973</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037375942466374</v>
+        <v>1.063317741591879</v>
       </c>
       <c r="D3">
-        <v>1.052361314724028</v>
+        <v>1.067772924698103</v>
       </c>
       <c r="E3">
-        <v>1.038032363084621</v>
+        <v>1.05867543085846</v>
       </c>
       <c r="F3">
-        <v>1.057324666480745</v>
+        <v>1.076701715084911</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059989546834404</v>
+        <v>1.053222933430652</v>
       </c>
       <c r="J3">
-        <v>1.056897082904426</v>
+        <v>1.067943031481683</v>
       </c>
       <c r="K3">
-        <v>1.062365347903472</v>
+        <v>1.070297771097248</v>
       </c>
       <c r="L3">
-        <v>1.048200683801545</v>
+        <v>1.06122316132055</v>
       </c>
       <c r="M3">
-        <v>1.067273070731759</v>
+        <v>1.079204506370166</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04115875517817</v>
+        <v>1.064112700855984</v>
       </c>
       <c r="D4">
-        <v>1.055382599065381</v>
+        <v>1.06841832831858</v>
       </c>
       <c r="E4">
-        <v>1.041169652270285</v>
+        <v>1.059360216827389</v>
       </c>
       <c r="F4">
-        <v>1.060676020232076</v>
+        <v>1.077432804832294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0614052848189</v>
+        <v>1.053479079150611</v>
       </c>
       <c r="J4">
-        <v>1.059565159416491</v>
+        <v>1.06851289274186</v>
       </c>
       <c r="K4">
-        <v>1.064855577078526</v>
+        <v>1.070822983240496</v>
       </c>
       <c r="L4">
-        <v>1.050795344949563</v>
+        <v>1.06178650676341</v>
       </c>
       <c r="M4">
-        <v>1.070093399871879</v>
+        <v>1.079816316361867</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042727552179588</v>
+        <v>1.064446859835625</v>
       </c>
       <c r="D5">
-        <v>1.056636197972349</v>
+        <v>1.068689609687074</v>
       </c>
       <c r="E5">
-        <v>1.042471909505532</v>
+        <v>1.059648115906482</v>
       </c>
       <c r="F5">
-        <v>1.062067106362613</v>
+        <v>1.077740179960075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061990109602333</v>
+        <v>1.053586452756275</v>
       </c>
       <c r="J5">
-        <v>1.060670728042843</v>
+        <v>1.068752289398869</v>
       </c>
       <c r="K5">
-        <v>1.065887262689314</v>
+        <v>1.071043588724869</v>
       </c>
       <c r="L5">
-        <v>1.051870952715414</v>
+        <v>1.062023208226536</v>
       </c>
       <c r="M5">
-        <v>1.071262707994752</v>
+        <v>1.080073404597423</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042989727553598</v>
+        <v>1.064502964196398</v>
       </c>
       <c r="D6">
-        <v>1.056845732480312</v>
+        <v>1.068735156330973</v>
       </c>
       <c r="E6">
-        <v>1.042689608168647</v>
+        <v>1.0596964563386</v>
       </c>
       <c r="F6">
-        <v>1.06229965304831</v>
+        <v>1.077791791092139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062087707946265</v>
+        <v>1.05360446308981</v>
       </c>
       <c r="J6">
-        <v>1.060855433403267</v>
+        <v>1.068792475035522</v>
       </c>
       <c r="K6">
-        <v>1.066059613163574</v>
+        <v>1.071080618023098</v>
       </c>
       <c r="L6">
-        <v>1.052050679470227</v>
+        <v>1.062062943907718</v>
       </c>
       <c r="M6">
-        <v>1.071458100252326</v>
+        <v>1.080116564028673</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.041179800706198</v>
+        <v>1.064117166066895</v>
       </c>
       <c r="D7">
-        <v>1.055399413818195</v>
+        <v>1.068421953374439</v>
       </c>
       <c r="E7">
-        <v>1.041187117600377</v>
+        <v>1.059364063688649</v>
       </c>
       <c r="F7">
-        <v>1.060694677002317</v>
+        <v>1.07743691189429</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061413139460303</v>
+        <v>1.053480515099667</v>
       </c>
       <c r="J7">
-        <v>1.059579994430359</v>
+        <v>1.068516092250242</v>
       </c>
       <c r="K7">
-        <v>1.064869421456291</v>
+        <v>1.070825931741795</v>
       </c>
       <c r="L7">
-        <v>1.050809776122485</v>
+        <v>1.061789670085544</v>
       </c>
       <c r="M7">
-        <v>1.070109087606924</v>
+        <v>1.079819752044753</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033429477299399</v>
+        <v>1.062504232361558</v>
       </c>
       <c r="D8">
-        <v>1.049211665552036</v>
+        <v>1.067112420907356</v>
       </c>
       <c r="E8">
-        <v>1.034763582091155</v>
+        <v>1.057974842039847</v>
       </c>
       <c r="F8">
-        <v>1.053832747786591</v>
+        <v>1.07595378425559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058504681236114</v>
+        <v>1.05295980005934</v>
       </c>
       <c r="J8">
-        <v>1.054110487457171</v>
+        <v>1.067359386224279</v>
       </c>
       <c r="K8">
-        <v>1.059763874241752</v>
+        <v>1.069759738472581</v>
       </c>
       <c r="L8">
-        <v>1.045492380906567</v>
+        <v>1.060646333276851</v>
       </c>
       <c r="M8">
-        <v>1.064329742798506</v>
+        <v>1.078578133622756</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019003616752771</v>
+        <v>1.059660552935182</v>
       </c>
       <c r="D9">
-        <v>1.037720530471741</v>
+        <v>1.064803311159054</v>
       </c>
       <c r="E9">
-        <v>1.022851522416842</v>
+        <v>1.055527266182552</v>
       </c>
       <c r="F9">
-        <v>1.041106610419986</v>
+        <v>1.073341044753619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053017580645727</v>
+        <v>1.052032276235903</v>
       </c>
       <c r="J9">
-        <v>1.04390270505196</v>
+        <v>1.065315506977774</v>
       </c>
       <c r="K9">
-        <v>1.050229889516463</v>
+        <v>1.067874705571736</v>
       </c>
       <c r="L9">
-        <v>1.035584418515681</v>
+        <v>1.058627432233179</v>
       </c>
       <c r="M9">
-        <v>1.053566196937945</v>
+        <v>1.076386436853937</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008794937646986</v>
+        <v>1.057763649128561</v>
       </c>
       <c r="D10">
-        <v>1.029611534647314</v>
+        <v>1.063262809491461</v>
       </c>
       <c r="E10">
-        <v>1.014456495937504</v>
+        <v>1.053895763530794</v>
       </c>
       <c r="F10">
-        <v>1.032136948521991</v>
+        <v>1.07159963585963</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049087790823935</v>
+        <v>1.051407199565406</v>
       </c>
       <c r="J10">
-        <v>1.03666390526329</v>
+        <v>1.063949077355302</v>
       </c>
       <c r="K10">
-        <v>1.043465962978587</v>
+        <v>1.066613747973537</v>
       </c>
       <c r="L10">
-        <v>1.028569549086596</v>
+        <v>1.057278617955635</v>
       </c>
       <c r="M10">
-        <v>1.045949230825265</v>
+        <v>1.074922683793628</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004215484027403</v>
+        <v>1.056941976444259</v>
       </c>
       <c r="D11">
-        <v>1.025980637751315</v>
+        <v>1.062595482308249</v>
       </c>
       <c r="E11">
-        <v>1.010700018997009</v>
+        <v>1.053189341329666</v>
       </c>
       <c r="F11">
-        <v>1.028123088635499</v>
+        <v>1.07084566977834</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047314615328927</v>
+        <v>1.05113493110197</v>
       </c>
       <c r="J11">
-        <v>1.033413939410125</v>
+        <v>1.063356470803053</v>
       </c>
       <c r="K11">
-        <v>1.040428683862257</v>
+        <v>1.06606671340387</v>
       </c>
       <c r="L11">
-        <v>1.025422930855353</v>
+        <v>1.056693869389604</v>
       </c>
       <c r="M11">
-        <v>1.042533442899104</v>
+        <v>1.074288225982126</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002488803460988</v>
+        <v>1.056636722978922</v>
       </c>
       <c r="D12">
-        <v>1.024612727360615</v>
+        <v>1.062347564005918</v>
       </c>
       <c r="E12">
-        <v>1.009285161194308</v>
+        <v>1.052926947717615</v>
       </c>
       <c r="F12">
-        <v>1.026611247563776</v>
+        <v>1.070565623077571</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046644558516143</v>
+        <v>1.051033556436815</v>
       </c>
       <c r="J12">
-        <v>1.032188204873079</v>
+        <v>1.063136208636866</v>
       </c>
       <c r="K12">
-        <v>1.039283104468639</v>
+        <v>1.065863364167184</v>
       </c>
       <c r="L12">
-        <v>1.024236608272254</v>
+        <v>1.056476560812769</v>
       </c>
       <c r="M12">
-        <v>1.041245779960623</v>
+        <v>1.074052462121572</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002860374226342</v>
+        <v>1.05670220307889</v>
       </c>
       <c r="D13">
-        <v>1.02490704064702</v>
+        <v>1.062400745301493</v>
       </c>
       <c r="E13">
-        <v>1.009589559218093</v>
+        <v>1.052983231921832</v>
       </c>
       <c r="F13">
-        <v>1.026936512862129</v>
+        <v>1.070625693622359</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046788816249002</v>
+        <v>1.051055312610951</v>
       </c>
       <c r="J13">
-        <v>1.032451989113834</v>
+        <v>1.063183462055185</v>
       </c>
       <c r="K13">
-        <v>1.03952964135628</v>
+        <v>1.065906990359118</v>
       </c>
       <c r="L13">
-        <v>1.024491891059916</v>
+        <v>1.056523179099483</v>
       </c>
       <c r="M13">
-        <v>1.041522863586503</v>
+        <v>1.074103038725742</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004073290566219</v>
+        <v>1.056916745083727</v>
       </c>
       <c r="D14">
-        <v>1.025867965907255</v>
+        <v>1.062574990193983</v>
       </c>
       <c r="E14">
-        <v>1.010583472870985</v>
+        <v>1.05316765173746</v>
       </c>
       <c r="F14">
-        <v>1.027998554560615</v>
+        <v>1.07082252083779</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047259465303457</v>
+        <v>1.051126556382193</v>
       </c>
       <c r="J14">
-        <v>1.033313005606375</v>
+        <v>1.063338266762903</v>
       </c>
       <c r="K14">
-        <v>1.040334351601224</v>
+        <v>1.066049907687053</v>
       </c>
       <c r="L14">
-        <v>1.025325233566907</v>
+        <v>1.05667590878355</v>
       </c>
       <c r="M14">
-        <v>1.042427397040871</v>
+        <v>1.074268739674536</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004817151107265</v>
+        <v>1.057048925106846</v>
       </c>
       <c r="D15">
-        <v>1.026457435395493</v>
+        <v>1.062682342451776</v>
       </c>
       <c r="E15">
-        <v>1.011193226333611</v>
+        <v>1.053281279236025</v>
       </c>
       <c r="F15">
-        <v>1.028650098183436</v>
+        <v>1.070943793845608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047547913249378</v>
+        <v>1.051170419927139</v>
       </c>
       <c r="J15">
-        <v>1.033841010144313</v>
+        <v>1.063433628231342</v>
       </c>
       <c r="K15">
-        <v>1.04082781982314</v>
+        <v>1.066137943028706</v>
       </c>
       <c r="L15">
-        <v>1.025836324998722</v>
+        <v>1.056769996375488</v>
       </c>
       <c r="M15">
-        <v>1.042982168748452</v>
+        <v>1.074370820473709</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009095362692352</v>
+        <v>1.057818174291485</v>
       </c>
       <c r="D16">
-        <v>1.029849879761456</v>
+        <v>1.063307091798305</v>
       </c>
       <c r="E16">
-        <v>1.01470313551524</v>
+        <v>1.053942646946765</v>
       </c>
       <c r="F16">
-        <v>1.032400481585965</v>
+        <v>1.071649675570239</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049203907320108</v>
+        <v>1.051425235224744</v>
       </c>
       <c r="J16">
-        <v>1.036877061331383</v>
+        <v>1.063988386908155</v>
       </c>
       <c r="K16">
-        <v>1.043665160243244</v>
+        <v>1.066650031014592</v>
       </c>
       <c r="L16">
-        <v>1.028775986211721</v>
+        <v>1.057317410868674</v>
       </c>
       <c r="M16">
-        <v>1.046173346323131</v>
+        <v>1.074964777003701</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011735194815016</v>
+        <v>1.058300621714147</v>
       </c>
       <c r="D17">
-        <v>1.031944985507376</v>
+        <v>1.063698904775459</v>
       </c>
       <c r="E17">
-        <v>1.016871433160808</v>
+        <v>1.054357512312995</v>
       </c>
       <c r="F17">
-        <v>1.034717266756774</v>
+        <v>1.072092475696355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050223058375684</v>
+        <v>1.05158464360345</v>
       </c>
       <c r="J17">
-        <v>1.038749758277215</v>
+        <v>1.064336121414021</v>
       </c>
       <c r="K17">
-        <v>1.045415164796855</v>
+        <v>1.066970973203601</v>
       </c>
       <c r="L17">
-        <v>1.030589973301503</v>
+        <v>1.057660600369903</v>
       </c>
       <c r="M17">
-        <v>1.048142778859093</v>
+        <v>1.075337177109547</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013259748971896</v>
+        <v>1.0585819962757</v>
       </c>
       <c r="D18">
-        <v>1.033155571888107</v>
+        <v>1.06392741574487</v>
       </c>
       <c r="E18">
-        <v>1.018124547562546</v>
+        <v>1.054599499172869</v>
       </c>
       <c r="F18">
-        <v>1.036056172060656</v>
+        <v>1.072350760899677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05081065688166</v>
+        <v>1.051677468894496</v>
       </c>
       <c r="J18">
-        <v>1.03983101157952</v>
+        <v>1.064538859097683</v>
       </c>
       <c r="K18">
-        <v>1.046425528498871</v>
+        <v>1.067158073903058</v>
       </c>
       <c r="L18">
-        <v>1.031637593411567</v>
+        <v>1.057860709250883</v>
       </c>
       <c r="M18">
-        <v>1.049280257959628</v>
+        <v>1.07555432983664</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.01377705292507</v>
+        <v>1.058677932908664</v>
       </c>
       <c r="D19">
-        <v>1.033566444174162</v>
+        <v>1.064005327552498</v>
       </c>
       <c r="E19">
-        <v>1.018549894266758</v>
+        <v>1.054682010972366</v>
       </c>
       <c r="F19">
-        <v>1.036510634966355</v>
+        <v>1.072438830775094</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05100986940497</v>
+        <v>1.051709093664788</v>
       </c>
       <c r="J19">
-        <v>1.040197849725341</v>
+        <v>1.064607972191707</v>
       </c>
       <c r="K19">
-        <v>1.046768306916911</v>
+        <v>1.06722185357558</v>
       </c>
       <c r="L19">
-        <v>1.031993065326594</v>
+        <v>1.057928929755321</v>
       </c>
       <c r="M19">
-        <v>1.049666234673534</v>
+        <v>1.075628362837164</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011453551881456</v>
+        <v>1.058248862675352</v>
       </c>
       <c r="D20">
-        <v>1.031721393878536</v>
+        <v>1.06365686974452</v>
       </c>
       <c r="E20">
-        <v>1.016640005943157</v>
+        <v>1.054313000895042</v>
       </c>
       <c r="F20">
-        <v>1.034469993630858</v>
+        <v>1.072044966681572</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050114426811033</v>
+        <v>1.051567556622849</v>
       </c>
       <c r="J20">
-        <v>1.038549987808914</v>
+        <v>1.064298822109971</v>
       </c>
       <c r="K20">
-        <v>1.045228487624029</v>
+        <v>1.06693654944051</v>
       </c>
       <c r="L20">
-        <v>1.030396438170421</v>
+        <v>1.057623786402123</v>
       </c>
       <c r="M20">
-        <v>1.047932650265733</v>
+        <v>1.07529722852155</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003716840615799</v>
+        <v>1.056853569145567</v>
       </c>
       <c r="D21">
-        <v>1.025585539009842</v>
+        <v>1.062523680620611</v>
       </c>
       <c r="E21">
-        <v>1.010291340391975</v>
+        <v>1.053113344624989</v>
       </c>
       <c r="F21">
-        <v>1.027686398953213</v>
+        <v>1.0707645598679</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047121191856477</v>
+        <v>1.05110558355449</v>
       </c>
       <c r="J21">
-        <v>1.03305998004052</v>
+        <v>1.063292684558411</v>
       </c>
       <c r="K21">
-        <v>1.040097874179918</v>
+        <v>1.066007826419186</v>
       </c>
       <c r="L21">
-        <v>1.025080328476796</v>
+        <v>1.056630936660292</v>
       </c>
       <c r="M21">
-        <v>1.042161566246615</v>
+        <v>1.074219947590813</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9987029481209613</v>
+        <v>1.055976015847032</v>
       </c>
       <c r="D22">
-        <v>1.021615691029549</v>
+        <v>1.061810948658118</v>
       </c>
       <c r="E22">
-        <v>1.006185922180245</v>
+        <v>1.052359090074913</v>
       </c>
       <c r="F22">
-        <v>1.023299487683543</v>
+        <v>1.069959573674146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04517277051194</v>
+        <v>1.050813722048373</v>
       </c>
       <c r="J22">
-        <v>1.029500175723244</v>
+        <v>1.062659265350227</v>
       </c>
       <c r="K22">
-        <v>1.036770763950731</v>
+        <v>1.065422996811269</v>
       </c>
       <c r="L22">
-        <v>1.021635822776428</v>
+        <v>1.056006073352793</v>
       </c>
       <c r="M22">
-        <v>1.038423089192521</v>
+        <v>1.073542050751624</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001375719155223</v>
+        <v>1.056441250518677</v>
       </c>
       <c r="D23">
-        <v>1.023731250115954</v>
+        <v>1.062188805561643</v>
       </c>
       <c r="E23">
-        <v>1.00837353230521</v>
+        <v>1.052758933524499</v>
       </c>
       <c r="F23">
-        <v>1.025637117853647</v>
+        <v>1.070386307231641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046212205891092</v>
+        <v>1.050968576369558</v>
       </c>
       <c r="J23">
-        <v>1.031397964818039</v>
+        <v>1.062995131127882</v>
       </c>
       <c r="K23">
-        <v>1.038544526261246</v>
+        <v>1.065733112215189</v>
       </c>
       <c r="L23">
-        <v>1.023471901303667</v>
+        <v>1.056337384347201</v>
       </c>
       <c r="M23">
-        <v>1.040415788915964</v>
+        <v>1.073901470947332</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011580861088409</v>
+        <v>1.058272250446238</v>
       </c>
       <c r="D24">
-        <v>1.031822460612776</v>
+        <v>1.063675863648892</v>
       </c>
       <c r="E24">
-        <v>1.016744613745121</v>
+        <v>1.054333113679963</v>
       </c>
       <c r="F24">
-        <v>1.034581764041853</v>
+        <v>1.072066433937662</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050163533873688</v>
+        <v>1.051575277972601</v>
       </c>
       <c r="J24">
-        <v>1.03864028957215</v>
+        <v>1.064315676338004</v>
       </c>
       <c r="K24">
-        <v>1.045312871012171</v>
+        <v>1.066952104364657</v>
       </c>
       <c r="L24">
-        <v>1.030483920568993</v>
+        <v>1.057640421258938</v>
       </c>
       <c r="M24">
-        <v>1.048027633031408</v>
+        <v>1.07531527976042</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>1.022831433459896</v>
+        <v>1.060395900423877</v>
       </c>
       <c r="D25">
-        <v>1.04076609511429</v>
+        <v>1.0654004603227</v>
       </c>
       <c r="E25">
-        <v>1.026006722216157</v>
+        <v>1.056159980889576</v>
       </c>
       <c r="F25">
-        <v>1.044477583534128</v>
+        <v>1.074016422024656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054481797902251</v>
+        <v>1.052273246741163</v>
       </c>
       <c r="J25">
-        <v>1.04661412365934</v>
+        <v>1.065844571201166</v>
       </c>
       <c r="K25">
-        <v>1.052762893597087</v>
+        <v>1.068362779988752</v>
       </c>
       <c r="L25">
-        <v>1.038214299236856</v>
+        <v>1.059149869844057</v>
       </c>
       <c r="M25">
-        <v>1.056422561043239</v>
+        <v>1.076953500528012</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062088900924397</v>
+        <v>1.031384576100168</v>
       </c>
       <c r="D2">
-        <v>1.066775190774129</v>
+        <v>1.047580619176602</v>
       </c>
       <c r="E2">
-        <v>1.057617229651659</v>
+        <v>1.033071525102218</v>
       </c>
       <c r="F2">
-        <v>1.075572017937335</v>
+        <v>1.052025143822406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052825072051579</v>
+        <v>1.057732315888189</v>
       </c>
       <c r="J2">
-        <v>1.067061224130507</v>
+        <v>1.052665454259538</v>
       </c>
       <c r="K2">
-        <v>1.069484833642416</v>
+        <v>1.058414611478258</v>
       </c>
       <c r="L2">
-        <v>1.060351709029094</v>
+        <v>1.0440885739054</v>
       </c>
       <c r="M2">
-        <v>1.078258234190973</v>
+        <v>1.062804317937332</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063317741591879</v>
+        <v>1.037375942466374</v>
       </c>
       <c r="D3">
-        <v>1.067772924698103</v>
+        <v>1.052361314724029</v>
       </c>
       <c r="E3">
-        <v>1.05867543085846</v>
+        <v>1.038032363084621</v>
       </c>
       <c r="F3">
-        <v>1.076701715084911</v>
+        <v>1.057324666480745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053222933430652</v>
+        <v>1.059989546834404</v>
       </c>
       <c r="J3">
-        <v>1.067943031481683</v>
+        <v>1.056897082904426</v>
       </c>
       <c r="K3">
-        <v>1.070297771097248</v>
+        <v>1.062365347903472</v>
       </c>
       <c r="L3">
-        <v>1.06122316132055</v>
+        <v>1.048200683801544</v>
       </c>
       <c r="M3">
-        <v>1.079204506370166</v>
+        <v>1.06727307073176</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064112700855984</v>
+        <v>1.041158755178174</v>
       </c>
       <c r="D4">
-        <v>1.06841832831858</v>
+        <v>1.055382599065384</v>
       </c>
       <c r="E4">
-        <v>1.059360216827389</v>
+        <v>1.041169652270288</v>
       </c>
       <c r="F4">
-        <v>1.077432804832294</v>
+        <v>1.060676020232079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053479079150611</v>
+        <v>1.061405284818902</v>
       </c>
       <c r="J4">
-        <v>1.06851289274186</v>
+        <v>1.059565159416494</v>
       </c>
       <c r="K4">
-        <v>1.070822983240496</v>
+        <v>1.06485557707853</v>
       </c>
       <c r="L4">
-        <v>1.06178650676341</v>
+        <v>1.050795344949566</v>
       </c>
       <c r="M4">
-        <v>1.079816316361867</v>
+        <v>1.070093399871882</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064446859835625</v>
+        <v>1.042727552179589</v>
       </c>
       <c r="D5">
-        <v>1.068689609687074</v>
+        <v>1.05663619797235</v>
       </c>
       <c r="E5">
-        <v>1.059648115906482</v>
+        <v>1.042471909505533</v>
       </c>
       <c r="F5">
-        <v>1.077740179960075</v>
+        <v>1.062067106362613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053586452756275</v>
+        <v>1.061990109602334</v>
       </c>
       <c r="J5">
-        <v>1.068752289398869</v>
+        <v>1.060670728042844</v>
       </c>
       <c r="K5">
-        <v>1.071043588724869</v>
+        <v>1.065887262689315</v>
       </c>
       <c r="L5">
-        <v>1.062023208226536</v>
+        <v>1.051870952715415</v>
       </c>
       <c r="M5">
-        <v>1.080073404597423</v>
+        <v>1.071262707994753</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064502964196398</v>
+        <v>1.042989727553597</v>
       </c>
       <c r="D6">
-        <v>1.068735156330973</v>
+        <v>1.056845732480311</v>
       </c>
       <c r="E6">
-        <v>1.0596964563386</v>
+        <v>1.042689608168646</v>
       </c>
       <c r="F6">
-        <v>1.077791791092139</v>
+        <v>1.062299653048309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05360446308981</v>
+        <v>1.062087707946264</v>
       </c>
       <c r="J6">
-        <v>1.068792475035522</v>
+        <v>1.060855433403266</v>
       </c>
       <c r="K6">
-        <v>1.071080618023098</v>
+        <v>1.066059613163573</v>
       </c>
       <c r="L6">
-        <v>1.062062943907718</v>
+        <v>1.052050679470226</v>
       </c>
       <c r="M6">
-        <v>1.080116564028673</v>
+        <v>1.071458100252325</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064117166066895</v>
+        <v>1.041179800706199</v>
       </c>
       <c r="D7">
-        <v>1.068421953374439</v>
+        <v>1.055399413818197</v>
       </c>
       <c r="E7">
-        <v>1.059364063688649</v>
+        <v>1.041187117600378</v>
       </c>
       <c r="F7">
-        <v>1.07743691189429</v>
+        <v>1.060694677002318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053480515099667</v>
+        <v>1.061413139460303</v>
       </c>
       <c r="J7">
-        <v>1.068516092250242</v>
+        <v>1.059579994430361</v>
       </c>
       <c r="K7">
-        <v>1.070825931741795</v>
+        <v>1.064869421456292</v>
       </c>
       <c r="L7">
-        <v>1.061789670085544</v>
+        <v>1.050809776122486</v>
       </c>
       <c r="M7">
-        <v>1.079819752044753</v>
+        <v>1.070109087606925</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062504232361558</v>
+        <v>1.033429477299399</v>
       </c>
       <c r="D8">
-        <v>1.067112420907356</v>
+        <v>1.049211665552036</v>
       </c>
       <c r="E8">
-        <v>1.057974842039847</v>
+        <v>1.034763582091156</v>
       </c>
       <c r="F8">
-        <v>1.07595378425559</v>
+        <v>1.053832747786592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05295980005934</v>
+        <v>1.058504681236114</v>
       </c>
       <c r="J8">
-        <v>1.067359386224279</v>
+        <v>1.054110487457172</v>
       </c>
       <c r="K8">
-        <v>1.069759738472581</v>
+        <v>1.059763874241752</v>
       </c>
       <c r="L8">
-        <v>1.060646333276851</v>
+        <v>1.045492380906568</v>
       </c>
       <c r="M8">
-        <v>1.078578133622756</v>
+        <v>1.064329742798507</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059660552935182</v>
+        <v>1.019003616752772</v>
       </c>
       <c r="D9">
-        <v>1.064803311159054</v>
+        <v>1.037720530471741</v>
       </c>
       <c r="E9">
-        <v>1.055527266182552</v>
+        <v>1.022851522416843</v>
       </c>
       <c r="F9">
-        <v>1.073341044753619</v>
+        <v>1.041106610419987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052032276235903</v>
+        <v>1.053017580645727</v>
       </c>
       <c r="J9">
-        <v>1.065315506977774</v>
+        <v>1.043902705051961</v>
       </c>
       <c r="K9">
-        <v>1.067874705571736</v>
+        <v>1.050229889516464</v>
       </c>
       <c r="L9">
-        <v>1.058627432233179</v>
+        <v>1.035584418515681</v>
       </c>
       <c r="M9">
-        <v>1.076386436853937</v>
+        <v>1.053566196937945</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057763649128561</v>
+        <v>1.008794937646988</v>
       </c>
       <c r="D10">
-        <v>1.063262809491461</v>
+        <v>1.029611534647315</v>
       </c>
       <c r="E10">
-        <v>1.053895763530794</v>
+        <v>1.014456495937506</v>
       </c>
       <c r="F10">
-        <v>1.07159963585963</v>
+        <v>1.032136948521992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051407199565406</v>
+        <v>1.049087790823936</v>
       </c>
       <c r="J10">
-        <v>1.063949077355302</v>
+        <v>1.036663905263292</v>
       </c>
       <c r="K10">
-        <v>1.066613747973537</v>
+        <v>1.043465962978588</v>
       </c>
       <c r="L10">
-        <v>1.057278617955635</v>
+        <v>1.028569549086598</v>
       </c>
       <c r="M10">
-        <v>1.074922683793628</v>
+        <v>1.045949230825267</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056941976444259</v>
+        <v>1.004215484027403</v>
       </c>
       <c r="D11">
-        <v>1.062595482308249</v>
+        <v>1.025980637751315</v>
       </c>
       <c r="E11">
-        <v>1.053189341329666</v>
+        <v>1.010700018997009</v>
       </c>
       <c r="F11">
-        <v>1.07084566977834</v>
+        <v>1.028123088635499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05113493110197</v>
+        <v>1.047314615328927</v>
       </c>
       <c r="J11">
-        <v>1.063356470803053</v>
+        <v>1.033413939410125</v>
       </c>
       <c r="K11">
-        <v>1.06606671340387</v>
+        <v>1.040428683862256</v>
       </c>
       <c r="L11">
-        <v>1.056693869389604</v>
+        <v>1.025422930855353</v>
       </c>
       <c r="M11">
-        <v>1.074288225982126</v>
+        <v>1.042533442899104</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056636722978922</v>
+        <v>1.002488803460986</v>
       </c>
       <c r="D12">
-        <v>1.062347564005918</v>
+        <v>1.024612727360613</v>
       </c>
       <c r="E12">
-        <v>1.052926947717615</v>
+        <v>1.009285161194306</v>
       </c>
       <c r="F12">
-        <v>1.070565623077571</v>
+        <v>1.026611247563773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051033556436815</v>
+        <v>1.046644558516142</v>
       </c>
       <c r="J12">
-        <v>1.063136208636866</v>
+        <v>1.032188204873077</v>
       </c>
       <c r="K12">
-        <v>1.065863364167184</v>
+        <v>1.039283104468637</v>
       </c>
       <c r="L12">
-        <v>1.056476560812769</v>
+        <v>1.024236608272252</v>
       </c>
       <c r="M12">
-        <v>1.074052462121572</v>
+        <v>1.041245779960621</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05670220307889</v>
+        <v>1.002860374226341</v>
       </c>
       <c r="D13">
-        <v>1.062400745301493</v>
+        <v>1.024907040647019</v>
       </c>
       <c r="E13">
-        <v>1.052983231921832</v>
+        <v>1.009589559218091</v>
       </c>
       <c r="F13">
-        <v>1.070625693622359</v>
+        <v>1.026936512862128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051055312610951</v>
+        <v>1.046788816249001</v>
       </c>
       <c r="J13">
-        <v>1.063183462055185</v>
+        <v>1.032451989113832</v>
       </c>
       <c r="K13">
-        <v>1.065906990359118</v>
+        <v>1.039529641356279</v>
       </c>
       <c r="L13">
-        <v>1.056523179099483</v>
+        <v>1.024491891059915</v>
       </c>
       <c r="M13">
-        <v>1.074103038725742</v>
+        <v>1.041522863586503</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056916745083727</v>
+        <v>1.004073290566218</v>
       </c>
       <c r="D14">
-        <v>1.062574990193983</v>
+        <v>1.025867965907254</v>
       </c>
       <c r="E14">
-        <v>1.05316765173746</v>
+        <v>1.010583472870985</v>
       </c>
       <c r="F14">
-        <v>1.07082252083779</v>
+        <v>1.027998554560615</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051126556382193</v>
+        <v>1.047259465303456</v>
       </c>
       <c r="J14">
-        <v>1.063338266762903</v>
+        <v>1.033313005606374</v>
       </c>
       <c r="K14">
-        <v>1.066049907687053</v>
+        <v>1.040334351601224</v>
       </c>
       <c r="L14">
-        <v>1.05667590878355</v>
+        <v>1.025325233566907</v>
       </c>
       <c r="M14">
-        <v>1.074268739674536</v>
+        <v>1.04242739704087</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057048925106846</v>
+        <v>1.004817151107266</v>
       </c>
       <c r="D15">
-        <v>1.062682342451776</v>
+        <v>1.026457435395494</v>
       </c>
       <c r="E15">
-        <v>1.053281279236025</v>
+        <v>1.011193226333611</v>
       </c>
       <c r="F15">
-        <v>1.070943793845608</v>
+        <v>1.028650098183437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051170419927139</v>
+        <v>1.047547913249378</v>
       </c>
       <c r="J15">
-        <v>1.063433628231342</v>
+        <v>1.033841010144314</v>
       </c>
       <c r="K15">
-        <v>1.066137943028706</v>
+        <v>1.040827819823141</v>
       </c>
       <c r="L15">
-        <v>1.056769996375488</v>
+        <v>1.025836324998722</v>
       </c>
       <c r="M15">
-        <v>1.074370820473709</v>
+        <v>1.042982168748453</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057818174291485</v>
+        <v>1.009095362692352</v>
       </c>
       <c r="D16">
-        <v>1.063307091798305</v>
+        <v>1.029849879761456</v>
       </c>
       <c r="E16">
-        <v>1.053942646946765</v>
+        <v>1.014703135515241</v>
       </c>
       <c r="F16">
-        <v>1.071649675570239</v>
+        <v>1.032400481585965</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051425235224744</v>
+        <v>1.049203907320108</v>
       </c>
       <c r="J16">
-        <v>1.063988386908155</v>
+        <v>1.036877061331384</v>
       </c>
       <c r="K16">
-        <v>1.066650031014592</v>
+        <v>1.043665160243245</v>
       </c>
       <c r="L16">
-        <v>1.057317410868674</v>
+        <v>1.028775986211722</v>
       </c>
       <c r="M16">
-        <v>1.074964777003701</v>
+        <v>1.046173346323131</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058300621714147</v>
+        <v>1.011735194815018</v>
       </c>
       <c r="D17">
-        <v>1.063698904775459</v>
+        <v>1.031944985507377</v>
       </c>
       <c r="E17">
-        <v>1.054357512312995</v>
+        <v>1.01687143316081</v>
       </c>
       <c r="F17">
-        <v>1.072092475696355</v>
+        <v>1.034717266756775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05158464360345</v>
+        <v>1.050223058375684</v>
       </c>
       <c r="J17">
-        <v>1.064336121414021</v>
+        <v>1.038749758277217</v>
       </c>
       <c r="K17">
-        <v>1.066970973203601</v>
+        <v>1.045415164796857</v>
       </c>
       <c r="L17">
-        <v>1.057660600369903</v>
+        <v>1.030589973301505</v>
       </c>
       <c r="M17">
-        <v>1.075337177109547</v>
+        <v>1.048142778859094</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0585819962757</v>
+        <v>1.013259748971895</v>
       </c>
       <c r="D18">
-        <v>1.06392741574487</v>
+        <v>1.033155571888105</v>
       </c>
       <c r="E18">
-        <v>1.054599499172869</v>
+        <v>1.018124547562544</v>
       </c>
       <c r="F18">
-        <v>1.072350760899677</v>
+        <v>1.036056172060654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051677468894496</v>
+        <v>1.050810656881659</v>
       </c>
       <c r="J18">
-        <v>1.064538859097683</v>
+        <v>1.039831011579518</v>
       </c>
       <c r="K18">
-        <v>1.067158073903058</v>
+        <v>1.046425528498869</v>
       </c>
       <c r="L18">
-        <v>1.057860709250883</v>
+        <v>1.031637593411565</v>
       </c>
       <c r="M18">
-        <v>1.07555432983664</v>
+        <v>1.049280257959626</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058677932908664</v>
+        <v>1.01377705292507</v>
       </c>
       <c r="D19">
-        <v>1.064005327552498</v>
+        <v>1.033566444174161</v>
       </c>
       <c r="E19">
-        <v>1.054682010972366</v>
+        <v>1.018549894266757</v>
       </c>
       <c r="F19">
-        <v>1.072438830775094</v>
+        <v>1.036510634966355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051709093664788</v>
+        <v>1.051009869404969</v>
       </c>
       <c r="J19">
-        <v>1.064607972191707</v>
+        <v>1.04019784972534</v>
       </c>
       <c r="K19">
-        <v>1.06722185357558</v>
+        <v>1.046768306916911</v>
       </c>
       <c r="L19">
-        <v>1.057928929755321</v>
+        <v>1.031993065326594</v>
       </c>
       <c r="M19">
-        <v>1.075628362837164</v>
+        <v>1.049666234673533</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058248862675352</v>
+        <v>1.011453551881456</v>
       </c>
       <c r="D20">
-        <v>1.06365686974452</v>
+        <v>1.031721393878536</v>
       </c>
       <c r="E20">
-        <v>1.054313000895042</v>
+        <v>1.016640005943156</v>
       </c>
       <c r="F20">
-        <v>1.072044966681572</v>
+        <v>1.034469993630858</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051567556622849</v>
+        <v>1.050114426811033</v>
       </c>
       <c r="J20">
-        <v>1.064298822109971</v>
+        <v>1.038549987808915</v>
       </c>
       <c r="K20">
-        <v>1.06693654944051</v>
+        <v>1.045228487624029</v>
       </c>
       <c r="L20">
-        <v>1.057623786402123</v>
+        <v>1.03039643817042</v>
       </c>
       <c r="M20">
-        <v>1.07529722852155</v>
+        <v>1.047932650265734</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056853569145567</v>
+        <v>1.003716840615799</v>
       </c>
       <c r="D21">
-        <v>1.062523680620611</v>
+        <v>1.025585539009842</v>
       </c>
       <c r="E21">
-        <v>1.053113344624989</v>
+        <v>1.010291340391975</v>
       </c>
       <c r="F21">
-        <v>1.0707645598679</v>
+        <v>1.027686398953213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05110558355449</v>
+        <v>1.047121191856477</v>
       </c>
       <c r="J21">
-        <v>1.063292684558411</v>
+        <v>1.03305998004052</v>
       </c>
       <c r="K21">
-        <v>1.066007826419186</v>
+        <v>1.040097874179918</v>
       </c>
       <c r="L21">
-        <v>1.056630936660292</v>
+        <v>1.025080328476797</v>
       </c>
       <c r="M21">
-        <v>1.074219947590813</v>
+        <v>1.042161566246615</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055976015847032</v>
+        <v>0.9987029481209605</v>
       </c>
       <c r="D22">
-        <v>1.061810948658118</v>
+        <v>1.021615691029548</v>
       </c>
       <c r="E22">
-        <v>1.052359090074913</v>
+        <v>1.006185922180244</v>
       </c>
       <c r="F22">
-        <v>1.069959573674146</v>
+        <v>1.023299487683542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050813722048373</v>
+        <v>1.045172770511939</v>
       </c>
       <c r="J22">
-        <v>1.062659265350227</v>
+        <v>1.029500175723242</v>
       </c>
       <c r="K22">
-        <v>1.065422996811269</v>
+        <v>1.03677076395073</v>
       </c>
       <c r="L22">
-        <v>1.056006073352793</v>
+        <v>1.021635822776428</v>
       </c>
       <c r="M22">
-        <v>1.073542050751624</v>
+        <v>1.03842308919252</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056441250518677</v>
+        <v>1.001375719155223</v>
       </c>
       <c r="D23">
-        <v>1.062188805561643</v>
+        <v>1.023731250115955</v>
       </c>
       <c r="E23">
-        <v>1.052758933524499</v>
+        <v>1.008373532305211</v>
       </c>
       <c r="F23">
-        <v>1.070386307231641</v>
+        <v>1.025637117853648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050968576369558</v>
+        <v>1.046212205891093</v>
       </c>
       <c r="J23">
-        <v>1.062995131127882</v>
+        <v>1.03139796481804</v>
       </c>
       <c r="K23">
-        <v>1.065733112215189</v>
+        <v>1.038544526261247</v>
       </c>
       <c r="L23">
-        <v>1.056337384347201</v>
+        <v>1.023471901303667</v>
       </c>
       <c r="M23">
-        <v>1.073901470947332</v>
+        <v>1.040415788915964</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058272250446238</v>
+        <v>1.011580861088411</v>
       </c>
       <c r="D24">
-        <v>1.063675863648892</v>
+        <v>1.031822460612778</v>
       </c>
       <c r="E24">
-        <v>1.054333113679963</v>
+        <v>1.016744613745122</v>
       </c>
       <c r="F24">
-        <v>1.072066433937662</v>
+        <v>1.034581764041854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051575277972601</v>
+        <v>1.050163533873689</v>
       </c>
       <c r="J24">
-        <v>1.064315676338004</v>
+        <v>1.038640289572151</v>
       </c>
       <c r="K24">
-        <v>1.066952104364657</v>
+        <v>1.045312871012172</v>
       </c>
       <c r="L24">
-        <v>1.057640421258938</v>
+        <v>1.030483920568994</v>
       </c>
       <c r="M24">
-        <v>1.07531527976042</v>
+        <v>1.04802763303141</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060395900423877</v>
+        <v>1.022831433459898</v>
       </c>
       <c r="D25">
-        <v>1.0654004603227</v>
+        <v>1.040766095114291</v>
       </c>
       <c r="E25">
-        <v>1.056159980889576</v>
+        <v>1.026006722216158</v>
       </c>
       <c r="F25">
-        <v>1.074016422024656</v>
+        <v>1.044477583534129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052273246741163</v>
+        <v>1.054481797902252</v>
       </c>
       <c r="J25">
-        <v>1.065844571201166</v>
+        <v>1.046614123659341</v>
       </c>
       <c r="K25">
-        <v>1.068362779988752</v>
+        <v>1.052762893597089</v>
       </c>
       <c r="L25">
-        <v>1.059149869844057</v>
+        <v>1.038214299236857</v>
       </c>
       <c r="M25">
-        <v>1.076953500528012</v>
+        <v>1.05642256104324</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
